--- a/excel-percentof-demo-start.xlsx
+++ b/excel-percentof-demo-start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27404"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0097543-5765-4CFB-AC66-627561495BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B102900F-934E-4198-98C1-C8FA068BF7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{6DCE75DD-A1F7-4951-83B4-2BC2702634D9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{6DCE75DD-A1F7-4951-83B4-2BC2702634D9}"/>
   </bookViews>
   <sheets>
     <sheet name="one-way" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Favorite Color</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Yellow</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Purple</t>
   </si>
   <si>
@@ -76,6 +73,15 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Proportion</t>
+  </si>
+  <si>
+    <t>Male proportion</t>
+  </si>
+  <si>
+    <t>Female proportion</t>
   </si>
 </sst>
 </file>
@@ -111,15 +117,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -135,26 +151,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64ACE99E-B931-41C8-A865-790A1B02E7B1}" name="colors" displayName="colors" ref="A1:B8" totalsRowShown="0">
-  <autoFilter ref="A1:B8" xr:uid="{64ACE99E-B931-41C8-A865-790A1B02E7B1}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64ACE99E-B931-41C8-A865-790A1B02E7B1}" name="colors" displayName="colors" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{64ACE99E-B931-41C8-A865-790A1B02E7B1}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C7A825D6-1625-40A5-A824-734FAF6641C4}" name="Favorite Color"/>
     <tableColumn id="2" xr3:uid="{0FA42CBA-E716-4604-93E0-C826881250CF}" name="Frequency"/>
+    <tableColumn id="4" xr3:uid="{A51D1D3E-E887-4340-9099-96EBC5AB8B41}" name="Proportion" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.PERCENTOF(colors[[#This Row],[Frequency]], colors[Frequency])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24B37BF5-8DA1-4579-8E10-BD987D966307}" name="colors_two_way" displayName="colors_two_way" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{24B37BF5-8DA1-4579-8E10-BD987D966307}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24B37BF5-8DA1-4579-8E10-BD987D966307}" name="colors_two_way" displayName="colors_two_way" ref="A1:E8" totalsRowShown="0">
+  <autoFilter ref="A1:E8" xr:uid="{24B37BF5-8DA1-4579-8E10-BD987D966307}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F6C34503-3D01-4135-8B39-8BD297847E49}" name="Favorite Color"/>
     <tableColumn id="2" xr3:uid="{FDFAC30E-2563-42D5-8C3F-545E887BB376}" name="Male"/>
-    <tableColumn id="6" xr3:uid="{B875BF9B-AE6A-4C94-93BA-E22D7EEFBD31}" name="Column1" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{50FD11CB-3E61-4AAF-9C64-76798E2A9810}" name="Male proportion" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Male]], male_female)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{85A6512A-90CA-4136-A820-B6E4130C823D}" name="Female"/>
+    <tableColumn id="6" xr3:uid="{8131B201-4603-452F-93B0-9D8CA8C12A3C}" name="Female proportion" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Female]], male_female)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -477,80 +499,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABDB49A-6FFB-414F-A84C-CF71BA9589D3}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.85">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
+        <f>_xlfn.PERCENTOF(colors[[#This Row],[Frequency]], colors[Frequency])</f>
+        <v>0.20175438596491227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.85">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <f>_xlfn.PERCENTOF(colors[[#This Row],[Frequency]], colors[Frequency])</f>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.85">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <f>_xlfn.PERCENTOF(colors[[#This Row],[Frequency]], colors[Frequency])</f>
+        <v>0.13157894736842105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.85">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <f>_xlfn.PERCENTOF(colors[[#This Row],[Frequency]], colors[Frequency])</f>
+        <v>7.0175438596491224E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <f>_xlfn.PERCENTOF(colors[[#This Row],[Frequency]], colors[Frequency])</f>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <f>_xlfn.PERCENTOF(colors[[#This Row],[Frequency]], colors[Frequency])</f>
+        <v>9.6491228070175433E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
       <c r="B8">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <f>_xlfn.PERCENTOF(colors[[#This Row],[Frequency]], colors[Frequency])</f>
+        <v>0.13157894736842105</v>
       </c>
     </row>
   </sheetData>
@@ -563,134 +617,167 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35446CB-9607-48FD-886C-BBC29554F721}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="12.8125" customWidth="1"/>
+    <col min="3" max="3" width="10.18359375" customWidth="1"/>
+    <col min="6" max="6" width="12.03515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:5" ht="79.900000000000006" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
         <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Male]], male_female)</f>
-        <v>9.3333333333333338E-2</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="D2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.85">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Female]], male_female)</f>
+        <v>9.6491228070175433E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
         <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Male]], male_female)</f>
-        <v>0.16</v>
+        <v>0.14912280701754385</v>
       </c>
       <c r="D3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.85">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Female]], male_female)</f>
+        <v>0.11403508771929824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Male]], male_female)</f>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="C4">
-        <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Male]], male_female)</f>
-        <v>0.08</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="E4" s="1">
+        <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Female]], male_female)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
         <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Male]], male_female)</f>
-        <v>2.6666666666666668E-2</v>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Female]], male_female)</f>
+        <v>3.5087719298245612E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Male]], male_female)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Female]], male_female)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Male]], male_female)</f>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="E7" s="1">
+        <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Female]], male_female)</f>
+        <v>2.6315789473684209E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
         <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Male]], male_female)</f>
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Male]], male_female)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="C8">
-        <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Male]], male_female)</f>
-        <v>0.08</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
+      <c r="E8" s="1">
+        <f>_xlfn.PERCENTOF(colors_two_way[[#This Row],[Female]], male_female)</f>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
   </sheetData>
